--- a/biology/Zoologie/Alnashetri/Alnashetri.xlsx
+++ b/biology/Zoologie/Alnashetri/Alnashetri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alnashetri cerropoliciensis
 Alnashetri (« cuisse mince ») est un genre éteint de petits dinosaures théropodes coelurosauriens de la super-famille des Alvarezsauroidea et de la famille des Alvarezsauridae.
-Des restes fossiles d'un spécimen de ce genre ont été découverts dans la formation géologique de Candeleros datée du Cénomanien (Crétacé supérieur), sur le site de La Buitrera, dans la province de Río Negro, en Argentine. Ce genre contient une espèce unique, Alnashetri cerropoliciensis[1].
+Des restes fossiles d'un spécimen de ce genre ont été découverts dans la formation géologique de Candeleros datée du Cénomanien (Crétacé supérieur), sur le site de La Buitrera, dans la province de Río Negro, en Argentine. Ce genre contient une espèce unique, Alnashetri cerropoliciensis.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant montre la position phylogénétique de Alnashetri cerropoliciensis parmi les Alvarezsauridae, suivant l'étude menée par Makovicky, Apesteguía et Gianechini en 2012[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant montre la position phylogénétique de Alnashetri cerropoliciensis parmi les Alvarezsauridae, suivant l'étude menée par Makovicky, Apesteguía et Gianechini en 2012 :
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste de dinosaures</t>
         </is>
